--- a/medicine/Enfance/Simone_d'Avène/Simone_d'Avène.xlsx
+++ b/medicine/Enfance/Simone_d'Avène/Simone_d'Avène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Simone_d%27Av%C3%A8ne</t>
+          <t>Simone_d'Avène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simone d'Avène, née Marie Simone Renaud d'Avène des Méloizes à Chartres le 18 avril 1903[1] et morte le 27 octobre 1996 à Saint-Malo[2], est une dessinatrice et peintre française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simone d'Avène, née Marie Simone Renaud d'Avène des Méloizes à Chartres le 18 avril 1903 et morte le 27 octobre 1996 à Saint-Malo, est une dessinatrice et peintre française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Simone_d%27Av%C3%A8ne</t>
+          <t>Simone_d'Avène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Simone d'Avène s'est spécialisée dans l'illustration. Elle expose dès 1926 à la Société des humoristes dont elle est membre et depuis 1919 à l'Union des femmes peintres et sculpteurs. En 1927, elle expose également au Cercle de la Librairie.
 On lui doit de nombreuses illustrations d'albums pour enfants tels que : Récits des temps bibliques, Les aventures de Pierrette, Les Rêves de Bébé, Douze chansons de Bon Ton...
